--- a/src/main/resources/statistics.xlsx
+++ b/src/main/resources/statistics.xlsx
@@ -29,16 +29,16 @@
     <t>Universities Names</t>
   </si>
   <si>
+    <t>Медицина</t>
+  </si>
+  <si>
+    <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;Самарский Медицинский Институт;</t>
+  </si>
+  <si>
     <t>Физика</t>
   </si>
   <si>
-    <t>Московский Придуманный Институт;Московский Выдуманный Университет;</t>
-  </si>
-  <si>
-    <t>Медицина</t>
-  </si>
-  <si>
-    <t>Самарский Медицинский Институт;Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;</t>
+    <t>Московский Выдуманный Университет;Московский Придуманный Институт;</t>
   </si>
   <si>
     <t>Лингвистика</t>
@@ -133,10 +133,10 @@
         <v>4.480000019073486</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>6</v>
@@ -150,10 +150,10 @@
         <v>4.480000019073486</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>8</v>

--- a/src/main/resources/statistics.xlsx
+++ b/src/main/resources/statistics.xlsx
@@ -29,6 +29,12 @@
     <t>Universities Names</t>
   </si>
   <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Казанский Университет Вычислений;</t>
+  </si>
+  <si>
     <t>Медицина</t>
   </si>
   <si>
@@ -45,12 +51,6 @@
   </si>
   <si>
     <t>Воронежский Литературно-Переводческий Университет;</t>
-  </si>
-  <si>
-    <t>Математика</t>
-  </si>
-  <si>
-    <t>Казанский Университет Вычислений;</t>
   </si>
 </sst>
 </file>
@@ -133,10 +133,10 @@
         <v>4.480000019073486</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>6</v>
@@ -150,10 +150,10 @@
         <v>4.480000019073486</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>8</v>
@@ -167,10 +167,10 @@
         <v>4.480000019073486</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>10</v>

--- a/src/main/resources/statistics.xlsx
+++ b/src/main/resources/statistics.xlsx
@@ -29,28 +29,28 @@
     <t>Universities Names</t>
   </si>
   <si>
+    <t>Медицина</t>
+  </si>
+  <si>
+    <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;Самарский Медицинский Институт;</t>
+  </si>
+  <si>
+    <t>Лингвистика</t>
+  </si>
+  <si>
+    <t>Воронежский Литературно-Переводческий Университет;</t>
+  </si>
+  <si>
     <t>Математика</t>
   </si>
   <si>
     <t>Казанский Университет Вычислений;</t>
   </si>
   <si>
-    <t>Медицина</t>
-  </si>
-  <si>
-    <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;Самарский Медицинский Институт;</t>
-  </si>
-  <si>
     <t>Физика</t>
   </si>
   <si>
     <t>Московский Выдуманный Университет;Московский Придуманный Институт;</t>
-  </si>
-  <si>
-    <t>Лингвистика</t>
-  </si>
-  <si>
-    <t>Воронежский Литературно-Переводческий Университет;</t>
   </si>
 </sst>
 </file>
@@ -133,10 +133,10 @@
         <v>4.480000019073486</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>6</v>
@@ -150,10 +150,10 @@
         <v>4.480000019073486</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>8</v>
@@ -167,10 +167,10 @@
         <v>4.480000019073486</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>10</v>
@@ -184,10 +184,10 @@
         <v>4.480000019073486</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>12</v>
